--- a/assets/測試檔_鋼筋計料.xlsx
+++ b/assets/測試檔_鋼筋計料.xlsx
@@ -87,10 +87,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,13 +471,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="60" customWidth="1" min="8" max="8"/>
+    <col width="60" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -527,26 +529,21 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>單位重(kg/m)</t>
+          <t>總重量(kg)</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>總重量(kg)</t>
+          <t>圖示</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>圖層</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
           <t>備註</t>
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="60" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>#10</t>
@@ -568,23 +565,21 @@
         <v>5</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>6.404</v>
-      </c>
-      <c r="H4" s="5" t="n">
         <v>320.2</v>
       </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1000
+──────────</t>
+        </is>
+      </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>-取料</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
           <t>#10-1000x5</t>
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="60" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>#3</t>
@@ -606,23 +601,21 @@
         <v>10</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="H5" s="5" t="n">
         <v>8.42</v>
       </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>150
+───</t>
+        </is>
+      </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>-取料</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
           <t>#3-150x10</t>
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="60" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>#4</t>
@@ -644,23 +637,21 @@
         <v>10</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="H6" s="5" t="n">
         <v>21.91</v>
       </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    200      
+20 |────| 200</t>
+        </is>
+      </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>-取料</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
           <t>#4-20+200x10</t>
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="60" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>#5</t>
@@ -682,23 +673,21 @@
         <v>10</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.552</v>
-      </c>
-      <c r="H7" s="5" t="n">
         <v>38.8</v>
       </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    200     
+25 |────| 25</t>
+        </is>
+      </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>-取料</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
           <t>#5-25+200+25x10</t>
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="60" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>#7</t>
@@ -720,23 +709,21 @@
         <v>5</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.042</v>
-      </c>
-      <c r="H8" s="5" t="n">
         <v>17.49</v>
       </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    70     
+35 |───| 10</t>
+        </is>
+      </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
-          <t>-取料</t>
-        </is>
-      </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
           <t>#7-35+70+10x5</t>
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="60" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>#8</t>
@@ -758,17 +745,15 @@
         <v>3</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.973</v>
-      </c>
-      <c r="H9" s="5" t="n">
         <v>154.95</v>
       </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1200         
+100 |──────────| 1200</t>
+        </is>
+      </c>
       <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>-取料</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>#8-100+1200x3</t>
         </is>
@@ -782,15 +767,16 @@
       </c>
       <c r="B10" s="7" t="n"/>
       <c r="C10" s="7" t="n"/>
-      <c r="D10" s="6" t="n">
-        <v>43</v>
-      </c>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>561.77</v>
       </c>
-      <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
+      <c r="I10" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
